--- a/data/trans_dic/P3A_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.9026504745201999</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9075507161784053</v>
+        <v>0.9075507161784055</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6809758838477858</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3453290488321079</v>
+        <v>0.3470762778273704</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3931483766969291</v>
+        <v>0.3949984692256202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4957612646413225</v>
+        <v>0.4947310000034712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.576137481330156</v>
+        <v>0.571867769289838</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8450880221540684</v>
+        <v>0.844314580210179</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8413050091012715</v>
+        <v>0.8416437658371804</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8834522238669575</v>
+        <v>0.8833209027245407</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8797591408180704</v>
+        <v>0.8823092472976621</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6557162479934966</v>
+        <v>0.6578669753750206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6290192348984951</v>
+        <v>0.6307367817298902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7055739532704263</v>
+        <v>0.7060113286426698</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7500199411808444</v>
+        <v>0.7532764105431876</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.428086951243155</v>
+        <v>0.4277926290316988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4545603279105623</v>
+        <v>0.4529563105521274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5570515591618945</v>
+        <v>0.5546473375441786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6743362262322009</v>
+        <v>0.6739462700356864</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8869579068010014</v>
+        <v>0.8900958081137269</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8837661937295771</v>
+        <v>0.8831435820946907</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9190616891257866</v>
+        <v>0.9193854116233948</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9274844209533136</v>
+        <v>0.9318436905907611</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7063533526344888</v>
+        <v>0.7048935430773131</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6726325742891247</v>
+        <v>0.6743936969046552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7430060084754003</v>
+        <v>0.7430733293506169</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.807566253609197</v>
+        <v>0.8089538867064048</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.7216153418172025</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7822414871933132</v>
+        <v>0.782241487193313</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3140061898856031</v>
+        <v>0.3165035876532523</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3934558960617064</v>
+        <v>0.394554570467826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4966191584068934</v>
+        <v>0.4960544468660315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5922563227725566</v>
+        <v>0.592533636773008</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8659312082925027</v>
+        <v>0.8636235068360665</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8154722548652077</v>
+        <v>0.8176866712263597</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8728888297991697</v>
+        <v>0.8736484077960974</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8947589878909112</v>
+        <v>0.8959235034355935</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5903676700486721</v>
+        <v>0.587782042967401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6216706609071709</v>
+        <v>0.620384977324517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7004140026218466</v>
+        <v>0.7003205152836137</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7581888364648007</v>
+        <v>0.7622980832453715</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3728229342914471</v>
+        <v>0.3732467571657684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4597143791851832</v>
+        <v>0.4585106180927417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5654210636195862</v>
+        <v>0.5656277294538142</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6591595507758342</v>
+        <v>0.6650683267886667</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9041014261544188</v>
+        <v>0.904092747659704</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8618889677177558</v>
+        <v>0.8642578143105094</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9129482855646341</v>
+        <v>0.9123116641856084</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9304106622572743</v>
+        <v>0.9311242853344697</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.631443754048659</v>
+        <v>0.6325987967933805</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6661874520433108</v>
+        <v>0.6678081433333772</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7404210417520878</v>
+        <v>0.7436917134814561</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7996658673353786</v>
+        <v>0.8019275234567504</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.8474519324048813</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9100992450071973</v>
+        <v>0.9100992450071974</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5476518665239081</v>
@@ -969,7 +969,7 @@
         <v>0.6912262882784616</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7739563209020932</v>
+        <v>0.7739563209020933</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2961465086702921</v>
+        <v>0.2945013438040776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4139703670365429</v>
+        <v>0.4132112959620781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5092084154806352</v>
+        <v>0.5133949897981491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6093810678086715</v>
+        <v>0.6058873277589472</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7767208962989696</v>
+        <v>0.7735634031434239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7935581332432137</v>
+        <v>0.7948643823080688</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8193461275751681</v>
+        <v>0.8179756393877273</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.890825561772094</v>
+        <v>0.889107109796185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5266332171751958</v>
+        <v>0.5234019963208312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6089808984332373</v>
+        <v>0.6066382077776337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6688745372237687</v>
+        <v>0.6658278240113553</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7514855971734937</v>
+        <v>0.7551845088605914</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3538118792799471</v>
+        <v>0.3518702398018574</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4822811732874722</v>
+        <v>0.4866781248494216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5811798335955015</v>
+        <v>0.5784529530149511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6719924472198007</v>
+        <v>0.6720976477189068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8265543170763485</v>
+        <v>0.8237415375623959</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8471720365813998</v>
+        <v>0.8465217062977857</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8728536538166701</v>
+        <v>0.8723557082059459</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9279213751191574</v>
+        <v>0.9270271924593533</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5711203191842316</v>
+        <v>0.5693122791572979</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6544466526373148</v>
+        <v>0.6545616611510426</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7144231974897391</v>
+        <v>0.7132926516455101</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7897989985377044</v>
+        <v>0.79346091445116</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5173862924303544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7267187827922557</v>
+        <v>0.7267187827922555</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7454720827075276</v>
@@ -1105,7 +1105,7 @@
         <v>0.6566841004247042</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.806661679461067</v>
+        <v>0.8066616794610671</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2899740485892854</v>
+        <v>0.2938187048209643</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4246260017138458</v>
+        <v>0.4272942689696794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4693028540350642</v>
+        <v>0.4712723114598336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6938250312351051</v>
+        <v>0.6943013298536534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6971775681713732</v>
+        <v>0.6985194821163225</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7392217518565012</v>
+        <v>0.7381030538069129</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7599883060871523</v>
+        <v>0.7584026095139771</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8680302973371515</v>
+        <v>0.8654620727866285</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4794311484088629</v>
+        <v>0.4802356258923934</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.585273850723112</v>
+        <v>0.5845080463603667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6271018185329155</v>
+        <v>0.626181947110632</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7855114262665132</v>
+        <v>0.7837333750530112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3823224304738076</v>
+        <v>0.3832027764006453</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5177055204905063</v>
+        <v>0.5189011616145314</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5622720409918766</v>
+        <v>0.5640400874629503</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7596024682531192</v>
+        <v>0.7597075006302416</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.788087028188293</v>
+        <v>0.791889568998384</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8177291737229104</v>
+        <v>0.8202531073775149</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8376208279227779</v>
+        <v>0.8335487082887008</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9132887608917493</v>
+        <v>0.9124867658550195</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.550095534962727</v>
+        <v>0.5503347589279973</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6519608003194347</v>
+        <v>0.651823881546133</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6901550403279524</v>
+        <v>0.6867283985466913</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8267679338426355</v>
+        <v>0.8252064216496704</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5305597183411107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6582544152581372</v>
+        <v>0.6582544152581371</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.8410621274048341</v>
@@ -1229,7 +1229,7 @@
         <v>0.8738540115005128</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9068316078079179</v>
+        <v>0.906831607807918</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5949234723422884</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.325501719214945</v>
+        <v>0.3241053262738874</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4202840815603177</v>
+        <v>0.4206738573357288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5136573503887764</v>
+        <v>0.5128546947910694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6409607749371741</v>
+        <v>0.639375254743203</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8284924032685287</v>
+        <v>0.8276012455414423</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8226508656552115</v>
+        <v>0.821648971309436</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8615463362869894</v>
+        <v>0.8618501528843849</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8971145511413371</v>
+        <v>0.8952450703375689</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5831574707293383</v>
+        <v>0.5822630751691152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6272030092241658</v>
+        <v>0.6286591832935907</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6943410925151634</v>
+        <v>0.6947846353616037</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7750287315255858</v>
+        <v>0.7749740656881731</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3620913499376565</v>
+        <v>0.3603802639473549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4542488610900319</v>
+        <v>0.4559141567705655</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5487819056119193</v>
+        <v>0.5471730476710125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6764180764567892</v>
+        <v>0.6758295813275903</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8532475767686261</v>
+        <v>0.8531457137782918</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8491032544466725</v>
+        <v>0.8465582931775978</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8860093408564481</v>
+        <v>0.8850075172567703</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9172957079856544</v>
+        <v>0.9159738952681367</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6086083807123309</v>
+        <v>0.6068847464452268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6514719040848822</v>
+        <v>0.6521783790787405</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7167264146870347</v>
+        <v>0.7170970591295421</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7965549488120685</v>
+        <v>0.7963288285850184</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>201721</v>
+        <v>202741</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>410005</v>
+        <v>411934</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>556937</v>
+        <v>555780</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>286991</v>
+        <v>284864</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>778166</v>
+        <v>777454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>941359</v>
+        <v>941738</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1109298</v>
+        <v>1109133</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>548101</v>
+        <v>549689</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>986822</v>
+        <v>990059</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1359815</v>
+        <v>1363528</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1678587</v>
+        <v>1679628</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>840878</v>
+        <v>844529</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>250063</v>
+        <v>249891</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>474050</v>
+        <v>472377</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>625791</v>
+        <v>623090</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>335906</v>
+        <v>335712</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>816721</v>
+        <v>819610</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>988870</v>
+        <v>988173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1154011</v>
+        <v>1154417</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>577834</v>
+        <v>580550</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1063029</v>
+        <v>1060832</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1454098</v>
+        <v>1457906</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1767640</v>
+        <v>1767800</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>905396</v>
+        <v>906951</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>338465</v>
+        <v>341157</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>384435</v>
+        <v>385509</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>449134</v>
+        <v>448623</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>568647</v>
+        <v>568913</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>914876</v>
+        <v>912438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>892340</v>
+        <v>894763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>878541</v>
+        <v>879305</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>997811</v>
+        <v>999110</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1260091</v>
+        <v>1254572</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1287688</v>
+        <v>1285025</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1338392</v>
+        <v>1338213</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1573476</v>
+        <v>1582004</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>401864</v>
+        <v>402320</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>449175</v>
+        <v>447998</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>511357</v>
+        <v>511544</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>632883</v>
+        <v>638557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>955204</v>
+        <v>955195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>943132</v>
+        <v>945724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>918860</v>
+        <v>918219</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1037569</v>
+        <v>1038365</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1347764</v>
+        <v>1350230</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1379897</v>
+        <v>1383254</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1414839</v>
+        <v>1421089</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1659554</v>
+        <v>1664247</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>332156</v>
+        <v>330311</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>366411</v>
+        <v>365740</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>419465</v>
+        <v>422914</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>637704</v>
+        <v>634048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>771118</v>
+        <v>767983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>694201</v>
+        <v>695344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>630911</v>
+        <v>629856</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>933266</v>
+        <v>931466</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1113503</v>
+        <v>1106671</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1071752</v>
+        <v>1067629</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1066037</v>
+        <v>1061181</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1573702</v>
+        <v>1581448</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>396833</v>
+        <v>394656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>426874</v>
+        <v>430766</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>478752</v>
+        <v>476506</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>703226</v>
+        <v>703336</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>820592</v>
+        <v>817799</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>741103</v>
+        <v>740534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>672113</v>
+        <v>671730</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>972129</v>
+        <v>971193</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1207566</v>
+        <v>1203743</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1151768</v>
+        <v>1151970</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1138631</v>
+        <v>1136829</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1653935</v>
+        <v>1661603</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>129421</v>
+        <v>131137</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>213597</v>
+        <v>214939</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>237796</v>
+        <v>238794</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>676789</v>
+        <v>677253</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>237247</v>
+        <v>237703</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>334672</v>
+        <v>334166</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>372165</v>
+        <v>371388</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>790207</v>
+        <v>787869</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>377127</v>
+        <v>377760</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>559380</v>
+        <v>558648</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>624843</v>
+        <v>623926</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1481310</v>
+        <v>1477957</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>170637</v>
+        <v>171030</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>260418</v>
+        <v>261019</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>284904</v>
+        <v>285800</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>740951</v>
+        <v>741054</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>268183</v>
+        <v>269477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>370215</v>
+        <v>371358</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>410181</v>
+        <v>408187</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>831408</v>
+        <v>830678</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>432713</v>
+        <v>432901</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>623117</v>
+        <v>622986</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>687669</v>
+        <v>684255</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1559112</v>
+        <v>1556167</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1051353</v>
+        <v>1046843</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1432364</v>
+        <v>1433693</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1724985</v>
+        <v>1722290</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2230666</v>
+        <v>2225148</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2742655</v>
+        <v>2739705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2912777</v>
+        <v>2909230</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3034221</v>
+        <v>3035291</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3315889</v>
+        <v>3308979</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3814062</v>
+        <v>3808212</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4358313</v>
+        <v>4368431</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4777117</v>
+        <v>4780168</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5561887</v>
+        <v>5561494</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1169536</v>
+        <v>1164009</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1548119</v>
+        <v>1553795</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1842942</v>
+        <v>1837539</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2354064</v>
+        <v>2352016</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2824605</v>
+        <v>2824268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3006438</v>
+        <v>2997427</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3120375</v>
+        <v>3116847</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3390482</v>
+        <v>3385596</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3980520</v>
+        <v>3969247</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4526953</v>
+        <v>4531862</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4931129</v>
+        <v>4933679</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5716367</v>
+        <v>5714744</v>
       </c>
     </row>
     <row r="24">
